--- a/output_folder/GF-2 PMS2_实测反射率结果.xlsx
+++ b/output_folder/GF-2 PMS2_实测反射率结果.xlsx
@@ -1,153 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\Site-calibration\output_folder\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F137AB29-2EA1-4655-A1F4-E5AFB354D4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="-168" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
-  <si>
-    <t>文件名</t>
-  </si>
-  <si>
-    <t>名称</t>
-  </si>
-  <si>
-    <t>经度(°)</t>
-  </si>
-  <si>
-    <t>纬度(°)</t>
-  </si>
-  <si>
-    <t>高程(m)</t>
-  </si>
-  <si>
-    <t>天气信息</t>
-  </si>
-  <si>
-    <t>地物类型</t>
-  </si>
-  <si>
-    <t>测量时间</t>
-  </si>
-  <si>
-    <t>PAN</t>
-  </si>
-  <si>
-    <t>B1</t>
-  </si>
-  <si>
-    <t>B2</t>
-  </si>
-  <si>
-    <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>L-LSR-Z-SUD-M-20231120-REF_样方2_植被（牡丹）-V2.xlsx</t>
-  </si>
-  <si>
-    <t>绥德</t>
-  </si>
-  <si>
-    <t>110°17'08''</t>
-  </si>
-  <si>
-    <t>37°30'48''</t>
-  </si>
-  <si>
-    <t>925.6</t>
-  </si>
-  <si>
-    <t>晴</t>
-  </si>
-  <si>
-    <t>植被,其他</t>
-  </si>
-  <si>
-    <t>2023-11-20 10:32:14</t>
-  </si>
-  <si>
-    <t>L-LSR-Z-SUD-M-20231120-REF_样方4_水泥地-V2.xlsx</t>
-  </si>
-  <si>
-    <t>110°17'24''</t>
-  </si>
-  <si>
-    <t>960.93</t>
-  </si>
-  <si>
-    <t>水泥路</t>
-  </si>
-  <si>
-    <t>2023-11-20 11:34:42</t>
-  </si>
-  <si>
-    <t>L-LSR-Z-SUD-M-20231120-REF_样方5_植被（红薯）-V2.xlsx</t>
-  </si>
-  <si>
-    <t>110°17'23''</t>
-  </si>
-  <si>
-    <t>37°30'21''</t>
-  </si>
-  <si>
-    <t>952.4</t>
-  </si>
-  <si>
-    <t>2023-11-20 10:00:43</t>
-  </si>
-  <si>
-    <t>37°30'26''</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -162,43 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -486,181 +420,486 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>文件名</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>名称</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>经度(°)</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>纬度(°)</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>高程(m)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>天气信息</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>地物类型</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>测量时间</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>PAN</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>B1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>B2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>B3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>B4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2">
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>L-LSR-Z-SUD-M-20231120-REF_样方2_植被（牡丹）-V2.xlsx</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>绥德</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>110°17'08''</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37°30'48''</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>925.6</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>植被,其他</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2023-11-20 10:32:14</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
         <v>0.1569200666374431</v>
       </c>
-      <c r="J2">
-        <v>5.8163992763906117E-2</v>
-      </c>
-      <c r="K2">
-        <v>7.7909517988920832E-2</v>
-      </c>
-      <c r="L2">
-        <v>0.11645808727286409</v>
-      </c>
-      <c r="M2">
-        <v>0.20822575739772101</v>
+      <c r="J2" t="n">
+        <v>0.05816399276390612</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.07790951798892083</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.1164580872728641</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.208225757397721</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3">
-        <v>0.19156134052338611</v>
-      </c>
-      <c r="J3">
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>L-LSR-Z-SUD-M-20231120-REF_样方4_水泥地-V2.xlsx</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>绥德</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>110°17'24''</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37°30'26''</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>960.93</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>水泥路</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2023-11-20 11:34:42</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>0.1915613405233861</v>
+      </c>
+      <c r="J3" t="n">
         <v>0.1194284062197748</v>
       </c>
-      <c r="K3">
-        <v>0.14474973188253989</v>
-      </c>
-      <c r="L3">
+      <c r="K3" t="n">
+        <v>0.1447497318825399</v>
+      </c>
+      <c r="L3" t="n">
         <v>0.1693555346521621</v>
       </c>
-      <c r="M3">
-        <v>0.22321325918948301</v>
+      <c r="M3" t="n">
+        <v>0.223213259189483</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4">
-        <v>0.22325151072329699</v>
-      </c>
-      <c r="J4">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>L-LSR-Z-SUD-M-20231120-REF_样方5_植被（红薯）-V2.xlsx</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>绥德</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>110°17'23''</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>37°30'21''</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>952.4</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>水泥路</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2023-11-20 10:00:43</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>0.223251510723297</v>
+      </c>
+      <c r="J4" t="n">
         <v>0.124383698774945</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>0.1689350546409091</v>
       </c>
-      <c r="L4">
-        <v>0.21780661929575479</v>
-      </c>
-      <c r="M4">
-        <v>0.24811441338507301</v>
+      <c r="L4" t="n">
+        <v>0.2178066192957548</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.248114413385073</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>L-LSR-Z-SUD-M-20240702-REF_样方4_水泥地-V2.xlsx</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>绥德</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>110°17'26''</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>37°30'25''</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>967.57</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>水泥路</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2024-07-02 09:54:26</t>
+        </is>
+      </c>
+      <c r="I5" t="n">
+        <v>0.2722404754174479</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0.1856304614615671</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0.2254646559832508</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.2641658793614522</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2961392335275574</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>L-LSR-Z-SUD-M-20240702-REF_样方5_植被（红薯）-V2.xlsx</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>绥德</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>110°17'24''</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>37°30'19''</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>948.3</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>植被,耕地,其他</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2024-07-02 09:41:03</t>
+        </is>
+      </c>
+      <c r="I6" t="n">
+        <v>0.3343581624682334</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0.03846920515604928</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0.07267590178125241</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0.06521719470420015</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.5689241343356113</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>L-LSR-Z-SUD-M-20241029-REF_样方3_植被（草地）-V2.xlsx</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>绥德</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>110°17'50''</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37°30'60''</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>1000.3</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>植被,草地,其他</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>2024-10-29 10:07:02</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>0.2634106631738772</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0.04401874398141029</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.07640360475500518</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.08254954995368785</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.418261371335913</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>L-LSR-Z-SUD-M-20241029-REF_样方4_水泥地-V2.xlsx</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>绥德</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>110°17'24''</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37°30'25''</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>961.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>晴</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>水泥路</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2024-10-29 09:46:19</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
+        <v>0.2103449796825804</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.1340539823403412</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0.1621475521737675</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0.1891310333427449</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.2417315151387523</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>